--- a/database/src/histórico.xlsx
+++ b/database/src/histórico.xlsx
@@ -1,68 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Desktop\Dev\warehouseSystem\database\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D42704-C20C-4DA1-9E9E-0FAFFB9C33EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="historico" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Estoque Anterior</t>
-  </si>
-  <si>
-    <t>Estoque Atual</t>
-  </si>
-  <si>
-    <t>31/07/2022</t>
-  </si>
-  <si>
-    <t>entrada</t>
-  </si>
-  <si>
-    <t>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</t>
-  </si>
-  <si>
-    <t>Inalterado</t>
-  </si>
-  <si>
-    <t>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</t>
-  </si>
-  <si>
-    <t>saída</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -431,240 +374,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="120.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Data</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Tipo</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Quantidade</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Item</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Estoque Anterior</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Estoque Atual</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>7/08/2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>7/08/2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>PLACA PCB ASSY DUAL-VFD +/-15 HMU 151XX701 (VALCO MELTON)</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>7/08/2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B20" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>6/08/2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Inalterado</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D26" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Inalterado</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Inalterado</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>saída</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B31" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Inalterado</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>PLACA COLEIRO 151XX680 (MADE FROM 152XX680) KRM 0007; VER M1 *PCB ASSY 12-ZONE GEAR- PUMP NI-120 18041 625 (VALCO MELTON)</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>31/07/2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>entrada</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>BLOCO DE PROTEÇÃO CONECTOR 5SD7464-0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F11" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database/src/histórico.xlsx
+++ b/database/src/histórico.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>7/08/2022</v>
+        <v>9/08/2022</v>
       </c>
       <c r="B2" t="str">
         <v>ALM00010</v>
@@ -414,7 +414,7 @@
         <v>entrada</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="str">
         <v>FUSIVEL DE VIDRO  2,5A</v>
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -431,22 +431,22 @@
         <v>7/08/2022</v>
       </c>
       <c r="B3" t="str">
-        <v>ALM00013</v>
+        <v>ALM00010</v>
       </c>
       <c r="C3" t="str">
         <v>entrada</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>FUSIVEL DE VIDRO  4A</v>
+        <v>FUSIVEL DE VIDRO  2,5A</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -454,22 +454,22 @@
         <v>7/08/2022</v>
       </c>
       <c r="B4" t="str">
-        <v>ALM00011</v>
+        <v>ALM00013</v>
       </c>
       <c r="C4" t="str">
-        <v>Inalterado</v>
+        <v>entrada</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>FUSIVEL DE VIDRO  3A</v>
+        <v>FUSIVEL DE VIDRO  4A</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         <v>7/08/2022</v>
       </c>
       <c r="B5" t="str">
-        <v>ALM00012</v>
+        <v>ALM00011</v>
       </c>
       <c r="C5" t="str">
         <v>Inalterado</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
+        <v>FUSIVEL DE VIDRO  3A</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -500,22 +500,22 @@
         <v>7/08/2022</v>
       </c>
       <c r="B6" t="str">
-        <v>ALM00013</v>
+        <v>ALM00012</v>
       </c>
       <c r="C6" t="str">
-        <v>entrada</v>
+        <v>Inalterado</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>FUSIVEL DE VIDRO  4A</v>
+        <v>FUSIVEL DE VIDRO 6A</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -523,22 +523,22 @@
         <v>7/08/2022</v>
       </c>
       <c r="B7" t="str">
-        <v>ALM00012</v>
+        <v>ALM00013</v>
       </c>
       <c r="C7" t="str">
         <v>entrada</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
+        <v>FUSIVEL DE VIDRO  4A</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -546,22 +546,22 @@
         <v>7/08/2022</v>
       </c>
       <c r="B8" t="str">
-        <v>ALM00013</v>
+        <v>ALM00012</v>
       </c>
       <c r="C8" t="str">
-        <v>Inalterado</v>
+        <v>entrada</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>FUSIVEL DE VIDRO  4A</v>
+        <v>FUSIVEL DE VIDRO 6A</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
         <v>7/08/2022</v>
       </c>
       <c r="B9" t="str">
-        <v>ALM00014</v>
+        <v>ALM00013</v>
       </c>
       <c r="C9" t="str">
         <v>Inalterado</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
+        <v>FUSIVEL DE VIDRO  4A</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -592,22 +592,22 @@
         <v>7/08/2022</v>
       </c>
       <c r="B10" t="str">
-        <v>ALM00012</v>
+        <v>ALM00014</v>
       </c>
       <c r="C10" t="str">
-        <v>entrada</v>
+        <v>Inalterado</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
+        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -615,22 +615,22 @@
         <v>7/08/2022</v>
       </c>
       <c r="B11" t="str">
-        <v>ALM00014</v>
+        <v>ALM00012</v>
       </c>
       <c r="C11" t="str">
-        <v>Inalterado</v>
+        <v>entrada</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
+        <v>FUSIVEL DE VIDRO 6A</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -687,10 +687,10 @@
         <v>ALM00014</v>
       </c>
       <c r="C14" t="str">
-        <v>entrada</v>
+        <v>Inalterado</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
         <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -707,27 +707,50 @@
         <v>7/08/2022</v>
       </c>
       <c r="B15" t="str">
-        <v>ALM00012</v>
+        <v>ALM00014</v>
       </c>
       <c r="C15" t="str">
-        <v>saída</v>
+        <v>entrada</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
+        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>7/08/2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>ALM00012</v>
+      </c>
+      <c r="C16" t="str">
+        <v>saída</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="str">
+        <v>FUSIVEL DE VIDRO 6A</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database/src/histórico.xlsx
+++ b/database/src/histórico.xlsx
@@ -10,7 +10,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -375,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,369 +389,53 @@
         <v>Código</v>
       </c>
       <c r="C1" t="str">
+        <v>Endereço</v>
+      </c>
+      <c r="D1" t="str">
         <v>Tipo</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Quantidade</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Item</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Estoque Anterior</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Estoque Atual</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>9/08/2022</v>
+        <v>26/10/2022</v>
       </c>
       <c r="B2" t="str">
-        <v>ALM00010</v>
+        <v>ALM00601</v>
       </c>
       <c r="C2" t="str">
-        <v>entrada</v>
+        <v>C1103</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>FUSIVEL DE VIDRO  2,5A</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ALM00010</v>
-      </c>
-      <c r="C3" t="str">
-        <v>entrada</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="str">
-        <v>FUSIVEL DE VIDRO  2,5A</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ALM00013</v>
-      </c>
-      <c r="C4" t="str">
-        <v>entrada</v>
-      </c>
-      <c r="D4">
+        <v xml:space="preserve">VALVULA PNEUMATICA | 5/2 VIAS COM 1 PILOTO </v>
+      </c>
+      <c r="F2" t="str">
         <v>2</v>
       </c>
-      <c r="E4" t="str">
-        <v>FUSIVEL DE VIDRO  4A</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ALM00011</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Inalterado</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <v>FUSIVEL DE VIDRO  3A</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B6" t="str">
-        <v>ALM00012</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Inalterado</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B7" t="str">
-        <v>ALM00013</v>
-      </c>
-      <c r="C7" t="str">
-        <v>entrada</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="str">
-        <v>FUSIVEL DE VIDRO  4A</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B8" t="str">
-        <v>ALM00012</v>
-      </c>
-      <c r="C8" t="str">
-        <v>entrada</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B9" t="str">
-        <v>ALM00013</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Inalterado</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="str">
-        <v>FUSIVEL DE VIDRO  4A</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B10" t="str">
-        <v>ALM00014</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Inalterado</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
-        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B11" t="str">
-        <v>ALM00012</v>
-      </c>
-      <c r="C11" t="str">
-        <v>entrada</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B12" t="str">
-        <v>ALM00014</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Inalterado</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B13" t="str">
-        <v>ALM00014</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Inalterado</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B14" t="str">
-        <v>ALM00014</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Inalterado</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B15" t="str">
-        <v>ALM00014</v>
-      </c>
-      <c r="C15" t="str">
-        <v>entrada</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="str">
-        <v>FUSIVEL CARTUCHO ULTRA RAPIDO 10X38 4A</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>7/08/2022</v>
-      </c>
-      <c r="B16" t="str">
-        <v>ALM00012</v>
-      </c>
-      <c r="C16" t="str">
-        <v>saída</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16" t="str">
-        <v>FUSIVEL DE VIDRO 6A</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
+      <c r="G2" t="str">
+        <v>3</v>
+      </c>
+      <c r="H2" t="str">
+        <v>inventario</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>